--- a/webwalker/WebWalkerProject_version.xlsx
+++ b/webwalker/WebWalkerProject_version.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11024"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11017"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro.t/Documents/OneDrive/python/webwalker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{05AF885F-33D2-E544-9120-EF16EE8B5A31}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{DCD03C0D-41B6-5349-9ADF-0594D0174018}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{05AF885F-33D2-E544-9120-EF16EE8B5A31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{28BE7780-1454-C74B-8AD6-43F7AC00EF40}"/>
   <bookViews>
     <workbookView xWindow="5460" yWindow="460" windowWidth="12140" windowHeight="20540" xr2:uid="{4285CE17-D069-E549-BDDA-9D62847CA6D9}"/>
   </bookViews>
@@ -17,10 +17,16 @@
     <sheet name="　FS" sheetId="2" r:id="rId2"/>
     <sheet name="DS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -542,7 +548,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -944,23 +950,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14ACB72B-95CE-1246-A863-946400242187}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="86" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="86" workbookViewId="0">
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.98828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -977,7 +983,7 @@
         <v>0.60277777777777775</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -985,54 +991,54 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>24</v>
       </c>
@@ -1040,12 +1046,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -1053,7 +1059,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -1061,43 +1067,43 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>35</v>
       </c>
@@ -1106,7 +1112,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>41</v>
       </c>
@@ -1114,7 +1120,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>44</v>
       </c>
@@ -1122,37 +1128,37 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>43</v>
       </c>
@@ -1160,7 +1166,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>52</v>
       </c>
@@ -1168,7 +1174,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>53</v>
       </c>
@@ -1176,7 +1182,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>54</v>
       </c>
@@ -1184,7 +1190,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>55</v>
       </c>
@@ -1195,7 +1201,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="42">
+    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>56</v>
       </c>
@@ -1203,27 +1209,27 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -1234,7 +1240,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>72</v>
       </c>
@@ -1242,7 +1248,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>73</v>
       </c>
@@ -1250,7 +1256,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>74</v>
       </c>
@@ -1258,7 +1264,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>75</v>
       </c>
@@ -1266,7 +1272,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>76</v>
       </c>
@@ -1274,12 +1280,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="63">
+    <row r="50" spans="1:3" ht="62.25" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>78</v>
       </c>
@@ -1287,7 +1293,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="63">
+    <row r="51" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>79</v>
       </c>
@@ -1295,7 +1301,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>80</v>
       </c>
@@ -1303,7 +1309,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -1314,7 +1320,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>99</v>
       </c>
@@ -1322,10 +1328,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -1336,7 +1342,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -1362,17 +1368,17 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>28</v>
       </c>
@@ -1380,22 +1386,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1403,7 +1409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -1411,32 +1417,32 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>24</v>
       </c>
@@ -1444,7 +1450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -1452,7 +1458,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -1460,72 +1466,72 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>1.21</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <v>1.22</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>1.23</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <v>1.24</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>1.25</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>37</v>
       </c>
@@ -1533,7 +1539,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>39</v>
       </c>
@@ -1541,7 +1547,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>62</v>
       </c>
@@ -1563,12 +1569,12 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.4296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -1576,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1584,7 +1590,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1592,52 +1598,52 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -1645,7 +1651,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -1653,57 +1659,57 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>91</v>
       </c>

--- a/webwalker/WebWalkerProject_version.xlsx
+++ b/webwalker/WebWalkerProject_version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro.t/Documents/OneDrive/python/webwalker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{05AF885F-33D2-E544-9120-EF16EE8B5A31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{28BE7780-1454-C74B-8AD6-43F7AC00EF40}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{05AF885F-33D2-E544-9120-EF16EE8B5A31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{50F0FCAB-93F1-2A4D-98C1-EF8E40045CAD}"/>
   <bookViews>
     <workbookView xWindow="5460" yWindow="460" windowWidth="12140" windowHeight="20540" xr2:uid="{4285CE17-D069-E549-BDDA-9D62847CA6D9}"/>
   </bookViews>
@@ -950,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14ACB72B-95CE-1246-A863-946400242187}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="86" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="86" workbookViewId="0">
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
